--- a/股票.xlsx
+++ b/股票.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>600728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002258</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -138,12 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -155,6 +159,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,6 +585,54 @@
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B13" s="6">
+        <v>600280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="6">
+        <v>600238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="6">
+        <v>603658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="6">
+        <v>600020</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="6">
+        <v>600448</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="6">
+        <v>600452</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="6">
+        <v>600810</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="6">
+        <v>600738</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
